--- a/results/Графики.xlsx
+++ b/results/Графики.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="QuickSort" sheetId="1" r:id="rId1"/>
     <sheet name="HeapSort" sheetId="2" r:id="rId2"/>
-    <sheet name="MergeSort" sheetId="3" r:id="rId3"/>
-    <sheet name="Графики" sheetId="4" r:id="rId4"/>
+    <sheet name="D-aryHeapSort" sheetId="5" r:id="rId3"/>
+    <sheet name="LeftistHeapSort" sheetId="6" r:id="rId4"/>
+    <sheet name="MergeSort" sheetId="3" r:id="rId5"/>
+    <sheet name="MultiPathSort" sheetId="7" r:id="rId6"/>
+    <sheet name="Графики" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
   <si>
     <t>Power of 2</t>
   </si>
@@ -26,6 +29,21 @@
   </si>
   <si>
     <t>Time, ms</t>
+  </si>
+  <si>
+    <t>Time, ms  D = 10</t>
+  </si>
+  <si>
+    <t>Time, ms  D = 100</t>
+  </si>
+  <si>
+    <t>Time, ms Pathes = 10</t>
+  </si>
+  <si>
+    <t>Time, ms Pathes = 100</t>
+  </si>
+  <si>
+    <t>переполнение стека</t>
   </si>
 </sst>
 </file>
@@ -104,9 +122,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.2138234158692374E-2"/>
+          <c:x val="7.4329414657185941E-2"/>
           <c:y val="3.4920634920634921E-2"/>
-          <c:w val="0.75932159671495458"/>
+          <c:w val="0.72535829898830417"/>
           <c:h val="0.93015873015873018"/>
         </c:manualLayout>
       </c:layout>
@@ -420,8 +438,431 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>10-aryHeapSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D-aryHeapSort'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D-aryHeapSort'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>987</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2385</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>100-aryHeapSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'D-aryHeapSort'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'D-aryHeapSort'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1045</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4576</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>LeftistHeapSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LeftistHeapSort!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LeftistHeapSort!$C$2:$C$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>MergeSort</c:v>
           </c:tx>
@@ -572,6 +1013,318 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>10-PathMergeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MultiPathSort!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MultiPathSort!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>100-PathMergeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MultiPathSort!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MultiPathSort!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>679</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2811</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -580,11 +1333,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="243579480"/>
-        <c:axId val="243589280"/>
+        <c:axId val="205575248"/>
+        <c:axId val="205576816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="243579480"/>
+        <c:axId val="205575248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,12 +1394,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243589280"/>
+        <c:crossAx val="205576816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243589280"/>
+        <c:axId val="205576816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -703,7 +1456,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243579480"/>
+        <c:crossAx val="205575248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -717,7 +1470,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83126262462878253"/>
+          <c:y val="3.9283089613798276E-2"/>
+          <c:w val="0.1621638338757368"/>
+          <c:h val="0.96071691038620177"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1351,9 +2113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1871,7 +2633,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,6 +2835,449 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f xml:space="preserve"> 2^A2</f>
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0" xml:space="preserve"> 2^A3</f>
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C9">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C10">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="C11">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C12">
+        <v>216</v>
+      </c>
+      <c r="D12">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="C13">
+        <v>443</v>
+      </c>
+      <c r="D13">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C14">
+        <v>987</v>
+      </c>
+      <c r="D14">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="C15">
+        <v>2385</v>
+      </c>
+      <c r="D15">
+        <v>9532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C16">
+        <v>4698</v>
+      </c>
+      <c r="D16">
+        <v>20234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f xml:space="preserve"> 2^A2</f>
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0" xml:space="preserve"> 2^A3</f>
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C9">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2278,11 +3483,269 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f xml:space="preserve"> 2^A2</f>
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0" xml:space="preserve"> 2^A3</f>
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C10">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="C11">
+        <v>42</v>
+      </c>
+      <c r="D11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C12">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="C13">
+        <v>210</v>
+      </c>
+      <c r="D13">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C14">
+        <v>427</v>
+      </c>
+      <c r="D14">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="C15">
+        <v>916</v>
+      </c>
+      <c r="D15">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C16">
+        <v>2129</v>
+      </c>
+      <c r="D16">
+        <v>5806</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/results/Графики.xlsx
+++ b/results/Графики.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="QuickSort" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Power of 2</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Time, ms Pathes = 100</t>
-  </si>
-  <si>
-    <t>переполнение стека</t>
   </si>
 </sst>
 </file>
@@ -794,10 +791,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>LeftistHeapSort!$B$2:$B$9</c:f>
+              <c:f>LeftistHeapSort!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>64</c:v>
                 </c:pt>
@@ -821,16 +818,37 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LeftistHeapSort!$C$2:$C$9</c:f>
+              <c:f>LeftistHeapSort!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -838,22 +856,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>335</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1428</c:v>
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8813</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1333,11 +1372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205575248"/>
-        <c:axId val="205576816"/>
+        <c:axId val="201242096"/>
+        <c:axId val="201242488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="205575248"/>
+        <c:axId val="201242096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,12 +1433,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205576816"/>
+        <c:crossAx val="201242488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205576816"/>
+        <c:axId val="201242488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1456,7 +1495,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205575248"/>
+        <c:crossAx val="201242096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2107,15 +2146,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3094,7 +3133,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3143,7 +3182,7 @@
         <v>256</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3155,7 +3194,7 @@
         <v>512</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3167,7 +3206,7 @@
         <v>1024</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,7 +3218,7 @@
         <v>2048</v>
       </c>
       <c r="C7">
-        <v>83</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,7 +3230,7 @@
         <v>4096</v>
       </c>
       <c r="C8">
-        <v>335</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3203,7 +3242,7 @@
         <v>8192</v>
       </c>
       <c r="C9">
-        <v>1428</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,8 +3253,8 @@
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
+      <c r="C10">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3226,6 +3265,9 @@
         <f t="shared" si="0"/>
         <v>32768</v>
       </c>
+      <c r="C11">
+        <v>132</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3235,6 +3277,9 @@
         <f t="shared" si="0"/>
         <v>65536</v>
       </c>
+      <c r="C12">
+        <v>329</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3244,6 +3289,9 @@
         <f t="shared" si="0"/>
         <v>131072</v>
       </c>
+      <c r="C13">
+        <v>757</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3253,6 +3301,9 @@
         <f t="shared" si="0"/>
         <v>262144</v>
       </c>
+      <c r="C14">
+        <v>1772</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3262,6 +3313,9 @@
         <f t="shared" si="0"/>
         <v>524288</v>
       </c>
+      <c r="C15">
+        <v>4026</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3270,6 +3324,9 @@
       <c r="B16">
         <f t="shared" si="0"/>
         <v>1048576</v>
+      </c>
+      <c r="C16">
+        <v>8813</v>
       </c>
     </row>
   </sheetData>
@@ -3281,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3745,7 +3802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/results/Графики.xlsx
+++ b/results/Графики.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="QuickSort" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,16 @@
     <sheet name="D-aryHeapSort" sheetId="5" r:id="rId3"/>
     <sheet name="LeftistHeapSort" sheetId="6" r:id="rId4"/>
     <sheet name="MergeSort" sheetId="3" r:id="rId5"/>
-    <sheet name="MultiPathSort" sheetId="7" r:id="rId6"/>
-    <sheet name="Графики" sheetId="4" r:id="rId7"/>
+    <sheet name="MultiPathMergeSort" sheetId="7" r:id="rId6"/>
+    <sheet name="MergeWithSelectionFromTreeSort" sheetId="8" r:id="rId7"/>
+    <sheet name="Графики" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Power of 2</t>
   </si>
@@ -31,16 +32,19 @@
     <t>Time, ms</t>
   </si>
   <si>
-    <t>Time, ms  D = 10</t>
+    <t>Time, ms Pathes = 8</t>
   </si>
   <si>
-    <t>Time, ms  D = 100</t>
+    <t>Time, ms Pathes = 64</t>
   </si>
   <si>
-    <t>Time, ms Pathes = 10</t>
+    <t>Time, ms  D = 8</t>
   </si>
   <si>
-    <t>Time, ms Pathes = 100</t>
+    <t>Time, ms  D = 64</t>
+  </si>
+  <si>
+    <t>Time, ms Pathes = 16</t>
   </si>
 </sst>
 </file>
@@ -438,7 +442,7 @@
           <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>10-aryHeapSort</c:v>
+            <c:v>8-aryHeapSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -547,40 +551,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>216</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>443</c:v>
+                  <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>987</c:v>
+                  <c:v>841</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2385</c:v>
+                  <c:v>1802</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4698</c:v>
+                  <c:v>3864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -591,7 +595,7 @@
           <c:idx val="6"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>100-aryHeapSort</c:v>
+            <c:v>64-aryHeapSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -700,46 +704,46 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>234</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>508</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1045</c:v>
+                  <c:v>668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2232</c:v>
+                  <c:v>1387</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4576</c:v>
+                  <c:v>2914</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9532</c:v>
+                  <c:v>6119</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20234</c:v>
+                  <c:v>13120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,7 +1060,7 @@
           <c:idx val="5"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>10-PathMergeSort</c:v>
+            <c:v>8-PathMergeSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1097,7 +1101,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>MultiPathSort!$B$2:$B$16</c:f>
+              <c:f>MultiPathMergeSort!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1151,7 +1155,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultiPathSort!$C$2:$C$16</c:f>
+              <c:f>MultiPathMergeSort!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1174,31 +1178,31 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>10</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>210</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>427</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>916</c:v>
+                  <c:v>1470</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2129</c:v>
+                  <c:v>2693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1209,7 +1213,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>100-PathMergeSort</c:v>
+            <c:v>64-PathMergeSort</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1256,7 +1260,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>MultiPathSort!$B$2:$B$16</c:f>
+              <c:f>MultiPathMergeSort!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1310,7 +1314,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultiPathSort!$D$2:$D$16</c:f>
+              <c:f>MultiPathMergeSort!$D$2:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1324,40 +1328,358 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4924</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>8-PathMergeWithSelectionFromTreeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MergeWithSelectionFromTreeSort!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>1024</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10</c:v>
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MergeWithSelectionFromTreeSort!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>265</c:v>
+                  <c:v>236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>679</c:v>
+                  <c:v>922</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1178</c:v>
+                  <c:v>2716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2811</c:v>
+                  <c:v>10320</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5806</c:v>
+                  <c:v>42240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:v>64-PathMergeWithSelectionFromTreeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MergeWithSelectionFromTreeSort!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1048576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MergeWithSelectionFromTreeSort!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1372,11 +1694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201242096"/>
-        <c:axId val="201242488"/>
+        <c:axId val="200992528"/>
+        <c:axId val="200992920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201242096"/>
+        <c:axId val="200992528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1433,12 +1755,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201242488"/>
+        <c:crossAx val="200992920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="201242488"/>
+        <c:axId val="200992920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1495,7 +1817,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201242096"/>
+        <c:crossAx val="200992528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1515,8 +1837,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.83126262462878253"/>
           <c:y val="3.9283089613798276E-2"/>
-          <c:w val="0.1621638338757368"/>
-          <c:h val="0.96071691038620177"/>
+          <c:w val="0.16873740934128303"/>
+          <c:h val="0.80790511598976522"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2878,7 +3200,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,10 +3213,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,7 +3261,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2951,10 +3273,10 @@
         <v>512</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2966,10 +3288,10 @@
         <v>1024</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2981,10 +3303,10 @@
         <v>2048</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2996,10 +3318,10 @@
         <v>4096</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3011,10 +3333,10 @@
         <v>8192</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3026,10 +3348,10 @@
         <v>16384</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>234</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,10 +3363,10 @@
         <v>32768</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D11">
-        <v>508</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3056,10 +3378,10 @@
         <v>65536</v>
       </c>
       <c r="C12">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="D12">
-        <v>1045</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3071,10 +3393,10 @@
         <v>131072</v>
       </c>
       <c r="C13">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="D13">
-        <v>2232</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3086,10 +3408,10 @@
         <v>262144</v>
       </c>
       <c r="C14">
-        <v>987</v>
+        <v>841</v>
       </c>
       <c r="D14">
-        <v>4576</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3101,10 +3423,10 @@
         <v>524288</v>
       </c>
       <c r="C15">
-        <v>2385</v>
+        <v>1802</v>
       </c>
       <c r="D15">
-        <v>9532</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3116,10 +3438,10 @@
         <v>1048576</v>
       </c>
       <c r="C16">
-        <v>4698</v>
+        <v>3864</v>
       </c>
       <c r="D16">
-        <v>20234</v>
+        <v>13120</v>
       </c>
     </row>
   </sheetData>
@@ -3545,7 +3867,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,10 +3884,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3625,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3640,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3655,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3667,10 +3989,10 @@
         <v>4096</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3682,10 +4004,10 @@
         <v>8192</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3697,10 +4019,10 @@
         <v>16384</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3712,10 +4034,10 @@
         <v>32768</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D11">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,10 +4049,10 @@
         <v>65536</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="D12">
-        <v>265</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3742,10 +4064,10 @@
         <v>131072</v>
       </c>
       <c r="C13">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="D13">
-        <v>679</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3757,10 +4079,10 @@
         <v>262144</v>
       </c>
       <c r="C14">
-        <v>427</v>
+        <v>533</v>
       </c>
       <c r="D14">
-        <v>1178</v>
+        <v>938</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3772,10 +4094,10 @@
         <v>524288</v>
       </c>
       <c r="C15">
-        <v>916</v>
+        <v>1470</v>
       </c>
       <c r="D15">
-        <v>2811</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3787,10 +4109,10 @@
         <v>1048576</v>
       </c>
       <c r="C16">
-        <v>2129</v>
+        <v>2693</v>
       </c>
       <c r="D16">
-        <v>5806</v>
+        <v>4924</v>
       </c>
     </row>
   </sheetData>
@@ -3800,9 +4122,264 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <f xml:space="preserve"> 2^A2</f>
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="0" xml:space="preserve"> 2^A3</f>
+        <v>128</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
+      <c r="C9">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="C10">
+        <v>43</v>
+      </c>
+      <c r="D10">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
+      <c r="C11">
+        <v>90</v>
+      </c>
+      <c r="D11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
+      <c r="C12">
+        <v>236</v>
+      </c>
+      <c r="D12">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
+      <c r="C13">
+        <v>922</v>
+      </c>
+      <c r="D13">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
+      <c r="C14">
+        <v>2716</v>
+      </c>
+      <c r="D14">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
+      <c r="C15">
+        <v>10320</v>
+      </c>
+      <c r="D15">
+        <v>5282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
+      <c r="C16">
+        <v>42240</v>
+      </c>
+      <c r="D16">
+        <v>14108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
